--- a/AAII_Financials/Quarterly/TECD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TECD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>TECD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,211 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10380800</v>
+      </c>
+      <c r="E8" s="3">
         <v>9118900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9092200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8406400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10464500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9340000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8886100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8548300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10033400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8448500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8092400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7023600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7427500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6490300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9714600</v>
+      </c>
+      <c r="E9" s="3">
         <v>8558600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8530600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7897000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9815400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8783400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8359100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8025200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9416500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7922400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7576800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6566500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7056500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6174400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>666200</v>
+      </c>
+      <c r="E10" s="3">
         <v>560300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>561600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>509400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>649100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>556600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>527000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>523100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>616900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>526100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>515600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>457100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>371000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>315900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +886,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,8 +931,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -962,52 +978,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E14" s="3">
         <v>3300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>68600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>30300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>34300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1050,8 +1072,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1065,96 +1090,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10162700</v>
+      </c>
+      <c r="E17" s="3">
         <v>8977100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8967500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8308800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10298400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9193100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8775700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8477800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9881500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8368900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7988800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6948500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7324400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6427400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>218100</v>
+      </c>
+      <c r="E18" s="3">
         <v>141800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>124700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>97600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>166100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>146900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>110400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>70500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>151900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>79600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>103600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>75100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>103100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1171,228 +1203,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>256700</v>
+      </c>
+      <c r="E21" s="3">
         <v>178900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>162400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>135900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>199400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>181200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>149400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>109100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>188900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>123100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>142100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>107200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>117500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E22" s="3">
         <v>24400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>24100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>27300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>27000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>31000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>195100</v>
+      </c>
+      <c r="E23" s="3">
         <v>116500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>72100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>132700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>116500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>81400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>42700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>124700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>54900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>75000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>88800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E24" s="3">
         <v>25700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>21600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>52100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1435,96 +1483,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E26" s="3">
         <v>90800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>79300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>55400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>80600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>114000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>65700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>96700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>47500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>78800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>36500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E27" s="3">
         <v>90800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>79300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>55400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>80600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>114000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>65700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>96700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>37300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>47500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>78800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1567,8 +1624,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1581,23 +1641,23 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>36200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>10200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>2600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-95400</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1611,8 +1671,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1655,8 +1718,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1699,96 +1765,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E33" s="3">
         <v>90800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>79300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>55400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>116800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>114200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>75900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>33700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>37300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>47500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>30700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>78800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>36500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1831,101 +1906,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E35" s="3">
         <v>90800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>79300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>55400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>116800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>114200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>75900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>33700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>37300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>47500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>30700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>78800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>36500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1942,8 +2026,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1960,52 +2045,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>841400</v>
+      </c>
+      <c r="E41" s="3">
         <v>964100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>738300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>797500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>799100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>646500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>792900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>345600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>955600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>562600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1033300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>861500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2125600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>691600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2048,184 +2137,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6192200</v>
+      </c>
+      <c r="E43" s="3">
         <v>5768900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5390100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5423400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6241700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5995200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5200000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5250200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11819400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4817000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4981900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4538600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3047900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2866000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3042500</v>
+      </c>
+      <c r="E44" s="3">
         <v>3145400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3115900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3260800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3297400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3201200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3022700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2917500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2965500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2862200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2703800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2602000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2118900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2254000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>362200</v>
+      </c>
+      <c r="E45" s="3">
         <v>341100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>360000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>367900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>354600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>342300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>383200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>418200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>403500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>237900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>247500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>253500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>119900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>129200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10438300</v>
+      </c>
+      <c r="E46" s="3">
         <v>10219500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9604300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9849600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10692800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10185300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9398800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8931400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10360400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8479700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8966400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8255500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7412300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5940800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2268,96 +2372,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>529500</v>
+      </c>
+      <c r="E48" s="3">
         <v>502900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>474900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>478700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>274900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>268300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>268100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>270700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>279100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>273600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>136600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>133800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>74200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>72700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2067900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1772700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1779700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1811500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1843800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1905700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1954100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2009600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2055900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1959200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2003300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1961900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>329700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2400,8 +2513,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2444,52 +2560,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>232900</v>
+      </c>
+      <c r="E52" s="3">
         <v>199600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>196100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>172000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>174900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>200300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>212300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>208100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>224900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>247400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>267700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>205400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>115600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2532,52 +2654,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13268600</v>
+      </c>
+      <c r="E54" s="3">
         <v>12694700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12055100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12311700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12986600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12559600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11833300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11419800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12920400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10959900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11373900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10556600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7931900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6462700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2594,8 +2722,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2612,272 +2741,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7259200</v>
+      </c>
+      <c r="E57" s="3">
         <v>6963900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6459900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6715600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7496500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7073100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6233200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5701800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6962200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5464800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5465400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4924300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3844500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3495100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>112900</v>
+      </c>
+      <c r="E58" s="3">
         <v>123300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>128500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>123100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>110400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>110300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>116900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>114400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>132700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>113400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>465400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>486200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>373100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1112500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1030500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>987400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>984400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1054600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1016500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1012800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1170000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>706300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>742800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>690800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>493200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>432700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8484600</v>
+      </c>
+      <c r="E60" s="3">
         <v>8117700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7575700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7823000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8607000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8238000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7366600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6828900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8264800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6284500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6673700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6101300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4710900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4293200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1338100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1294200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1297200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1297900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1300600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1301600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1402300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1505200</v>
       </c>
       <c r="K61" s="3">
         <v>1505200</v>
       </c>
       <c r="L61" s="3">
+        <v>1505200</v>
+      </c>
+      <c r="M61" s="3">
         <v>1806500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1802600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1799600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>989900</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>326400</v>
+      </c>
+      <c r="E62" s="3">
         <v>314600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>292500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>274900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>142300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>182300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>213700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>217000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>228800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>145100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>165400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>174400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>61200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>77100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2920,8 +3068,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2964,8 +3115,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3008,52 +3162,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10149200</v>
+      </c>
+      <c r="E66" s="3">
         <v>9726500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9165400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9395800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10049800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9721800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8982600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8551100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9998900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8236000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8641700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8075400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5762000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4370200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3070,8 +3230,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3114,8 +3275,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3158,8 +3322,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3202,8 +3369,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3246,52 +3416,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3461000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3311900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3221200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3141900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3086500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2969700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2855500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2779600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2745900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2744700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2707400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2659900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2629300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2550500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3334,8 +3510,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3378,8 +3557,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3422,52 +3604,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3119500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2968300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2889600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2915900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2936700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2837800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2850700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2868700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2921500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2723800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2732200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2481200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2169900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2092400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3510,101 +3698,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E81" s="3">
         <v>90800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>79300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>55400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>116800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>114200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>75900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>33700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>37300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>47500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>30700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>78800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>36500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3621,52 +3818,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E83" s="3">
         <v>38000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>37500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>37300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>39400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>39200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>39900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>40500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>38900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3709,8 +3910,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3753,8 +3957,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3797,8 +4004,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3841,8 +4051,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3885,52 +4098,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>180500</v>
+      </c>
+      <c r="E89" s="3">
         <v>309800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>39600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>63200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>230800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>154800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>561200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-566600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>656700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>69900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>146200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>224400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>445400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3947,52 +4166,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-166500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4035,8 +4258,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4079,52 +4305,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-238900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-138800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-172500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2280400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4141,8 +4373,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4185,8 +4418,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4229,8 +4465,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4273,8 +4512,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4317,136 +4559,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-65800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-81500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-35800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-65600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-146300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-98300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-22000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-286700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-361700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-22000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>790300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>996900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-13200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-16100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-12700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>41200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>58300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-122800</v>
+      </c>
+      <c r="E102" s="3">
         <v>225900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-59200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>152600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-146400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>447300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-610100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>393000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-470600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>171700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1264100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1434000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5500</v>
       </c>
     </row>
